--- a/1-définir-le-nom-id-et-canonical-de-lig/ig/all-profiles.xlsx
+++ b/1-définir-le-nom-id-et-canonical-de-lig/ig/all-profiles.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/EyeColor</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/EyeColor</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-06T10:03:56+00:00</t>
+    <t>2026-01-06T10:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -335,7 +335,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/EyeColorVS</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/ValueSet/EyeColorVS</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -345,7 +345,7 @@
     <t>fr-patient</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/fr-patient</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/fr-patient</t>
   </si>
   <si>
     <t>FrPatient</t>
@@ -519,7 +519,7 @@
     <t>eyecolor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/EyeColor}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/EyeColor}
 </t>
   </si>
   <si>
@@ -820,7 +820,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/ModifiedAdministrativeGender</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/ValueSet/ModifiedAdministrativeGender</t>
   </si>
   <si>
     <t>Patient.birthDate</t>
@@ -1740,7 +1740,7 @@
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="66.78125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="64.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
